--- a/output/fit_clients/fit_round_65.xlsx
+++ b/output/fit_clients/fit_round_65.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6321733724.213583</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004705785680327841</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>14</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.008240546165871</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9455946033204429</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.008240546165871</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6144268928.773256</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005850387818342928</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>16</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.8284132007721025</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.498348965471064</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.090776140562467</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.498348965471064</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4133812707.412478</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003277727143227905</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.450727779774036</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9721797304452715</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.450727779774036</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3917562212.275381</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004305175021753823</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>16</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.644764662982386</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.835515560398683</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.644764662982386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6292602778.726601</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002747274347488309</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8411147752327387</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.416879753668693</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07564455989927</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.416879753668693</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8702116736.123625</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0008812969479801473</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.569756909034507</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9094560275980272</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.569756909034507</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7072605330.866593</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002196498501421885</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.402146472951845</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9614945238350253</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.402146472951845</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6500678256.384487</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004588388457750003</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.172289081729548</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9090876020959321</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.172289081729548</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3296461587.490481</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004788749981879695</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>13</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.750985499052402</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9482631041812246</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.750985499052402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3787383752.305421</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001114031995699752</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.46913703977396</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7792141762077811</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.46913703977396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8307945596.606232</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.002140916393600132</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.396508421672989</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.004123153211218</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.396508421672989</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4985175400.297654</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004272058024323136</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>16</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.492363378468508</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.02032868224168</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.492363378468508</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7644525842.691961</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002709024776163079</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.997165886436719</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8977760812013484</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.997165886436719</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5480681423.841641</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004689610111436447</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.404687332779756</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9953956602968667</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.404687332779756</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7894881010.354376</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004005629218437762</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.07530178791226</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.916002525245148</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.07530178791226</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6868445566.886067</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002246660715877615</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.925529007904479</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9382878258313306</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.925529007904479</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5967734994.051589</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001327578056261353</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>10</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.096272473641873</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9343665124947558</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-3.096272473641873</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3262658046.026064</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002269410861566738</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>13</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.786190584450997</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9149960589968219</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.786190584450997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5752513276.920428</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001030688257402116</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>8</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6779663757594349</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.430748310513096</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.9054519274649606</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.430748310513096</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7119847826.689391</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004925408050933998</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.851451747412742</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8621593116612991</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.851451747412742</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4660393144.496152</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005258351269705228</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>16</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.627805399068323</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7897493903399292</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.627805399068323</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6056606992.507942</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001339509113969883</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>18</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.325443968510884</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8564078989918125</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.325443968510884</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>8191394499.908778</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004974610269729742</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>10</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.251046975468653</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.002634388391184</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.251046975468653</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6030620391.229538</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003739779230682632</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.204424595303567</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9398785209448941</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.204424595303567</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4318437258.377547</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001064344338128275</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>16</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.35564978317716</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8142243833843946</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.35564978317716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>6886058062.690228</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003224817623271607</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.804134536184528</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.935098317848307</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.804134536184528</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>5647632743.173568</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004432884256583134</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.033103232993139</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.916002525245148</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.033103232993139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5865479517.3681</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001616223317133839</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>11</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.111525832272076</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.983444569654874</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.111525832272076</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8581998313.975961</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.004055562764157503</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>14</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.8501944383678542</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.555768208803642</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.091480798368061</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.555768208803642</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6242788954.291705</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003482902141738113</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>15</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.674066663734448</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9570557008383305</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.674066663734448</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4895340212.80256</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001226485905191689</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>13</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.284839191210612</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.067168490446464</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.5508985371441012</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.067168490446464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6388838877.26618</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003080426318545505</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>10</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.238168134514636</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8522573826678955</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.238168134514636</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7855269610.843799</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004267031350729028</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>13</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6851334574090817</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.927181924984157</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8146788114468336</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.927181924984157</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6821986415.956898</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001964267692019759</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>13</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.77400354776305</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.242435796813496</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.77400354776305</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>8146519458.374547</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002849038553969631</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>11</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.002905079347533</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.023593613885347</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.002905079347533</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4763868222.691286</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005503450546892732</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>14</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.858972382928063</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.012085925230317</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.858972382928063</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>2926678399.009315</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.0032119754519514</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>14</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.6038015954138</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8973872104370449</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.6038015954138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>6003027319.497149</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002832422137325883</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>11</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.200796411263724</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8649561300958182</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.200796411263724</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>7229957248.770377</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004927370361994165</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>13</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.4837833200446341</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.970392184180437</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.8561772191848381</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.970392184180437</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5468412968.52383</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001142546539896157</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.8989788709736751</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.027286705071334</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.16543397927926</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.027286705071334</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6808410788.357782</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004991959824570748</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>14</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.3682116637730987</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.583406014255134</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.6997959160500867</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.583406014255134</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6633112360.128296</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004921981310447381</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>13</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.89972923584242</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9161244232483412</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.89972923584242</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6773403151.277187</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001701495457959044</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>15</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.720929671292086</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9352177268739887</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.720929671292086</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4093426161.547064</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001526535041622805</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>12</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.168927344412582</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9584987594779698</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.168927344412582</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9530351030.290594</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004820143020504649</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>12</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.91123973750791</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8364841644212284</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.91123973750791</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8810305846.408852</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002394943238553018</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>13</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.697239376261812</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8944421232906565</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.697239376261812</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7214864608.151066</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002459467464733282</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.35226726433259</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9523764660509713</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.35226726433259</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5206461424.030852</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.00488915071196048</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>16</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.656127095554056</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.862288821277942</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.656127095554056</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7229363717.412268</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002936100931915625</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>5</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.443367569424586</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.038299789041133</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.443367569424586</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4580079362.888484</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004773619822945641</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>16</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.59177909109337</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9402348812841468</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.59177909109337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7289400932.624094</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001476877744384346</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>11</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.938927220652042</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8649561300958182</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.938927220652042</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5670282059.506502</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003435400462958363</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>11</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.8917157241286595</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.02134973923029</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.170612219698794</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.02134973923029</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5245079787.678576</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005572701072195842</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>15</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.520793752122646</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8434480992690367</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.520793752122646</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8313795715.623703</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002704904713971867</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>15</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.591860115028988</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8968736735561452</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.591860115028988</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5367782437.397918</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.001833663486773851</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
         <v>11</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.042008517465517</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9216243707267281</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.042008517465517</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>7729051297.512709</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003486235420724592</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
         <v>14</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.64311367417434</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8153552506567123</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.64311367417434</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5497540009.797482</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.001831876344828663</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>16</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.375899867929583</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8142243833843946</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.375899867929583</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6876569774.514547</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003129803802652037</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>12</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.7961892584413203</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.848443298635171</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.060453348410862</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.848443298635171</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>3829814924.442532</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.004196060892902379</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>13</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.658156906204165</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8359332139528817</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.658156906204165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5751538766.153761</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004389718163585915</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>18</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.4703805122495223</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.062003487838037</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.7795565261837183</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.062003487838037</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5898431060.854926</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003680702387857416</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>14</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.266897030433422</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8633567336719364</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.266897030433422</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6158515415.038433</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004513920467235032</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
         <v>16</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.486220393983051</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9021041079843046</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.486220393983051</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4339257224.738913</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005371681273342941</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>11</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.965757479502555</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8966246266330523</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.965757479502555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>4894993708.961814</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004484962980402792</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>14</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.136212450336251</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9997619063260159</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.136212450336251</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6540676279.694057</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002998511642494731</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>10</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.180384166257056</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9277088736868228</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.180384166257056</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6520095073.218022</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.003982180905589845</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>9</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.392321320264814</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8965000772271261</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.392321320264814</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8387191923.091318</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002566896507908236</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>16</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6222854619530982</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.390765363614505</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7307913835425024</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.390765363614505</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6159946496.88643</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001165735122110369</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.794989658999996</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9998876390018349</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.794989658999996</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6013289039.851423</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003087253176279951</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>9</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.120935270570317</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9045305880482827</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.120935270570317</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3414595847.232759</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003511402679446483</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>9</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.257347760893588</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8194372772551242</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.257347760893588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>8057365480.365053</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002456074230188363</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>14</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.682530608584952</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.042258627606893</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.682530608584952</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5227584536.213624</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001436762300920307</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>10</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.03258753476776487</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.125466009175317</v>
-      </c>
-      <c r="M73" t="n">
-        <v>-0.3089694894996205</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.125466009175317</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4912813814.463632</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003214916149537021</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>11</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.942453308079628</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8873592023221157</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.942453308079628</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5323599491.025342</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.00305012757281051</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>14</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.768731569699093</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8633567336719364</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.768731569699093</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>4800615161.669627</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002842635986104279</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.689999730843926</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9184985755424461</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.689999730843926</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5227849063.351268</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004373228244206485</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>9</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.343852842493413</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9896145281478956</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.343852842493413</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6959783565.073191</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003237429283993617</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
         <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.637435049348924</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9049008689159405</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.637435049348924</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>5641096350.272733</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002050324251931859</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.92881173906228</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9878778563455461</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.92881173906228</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6827625230.157839</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002977256223321764</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>16</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.821231946260753</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9565741975243017</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.821231946260753</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5572604261.929172</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004865689324909783</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.419733968025797</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9806440717343677</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.419733968025797</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7989380779.74662</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004607552058394919</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>16</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.603118474986649</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8777256022823824</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.603118474986649</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10398378968.5526</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003460258051211561</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>21</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.7983581320914285</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.15655403546765</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.9655224217022169</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.15655403546765</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6551850643.317052</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005368738279308548</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>15</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.574027810104794</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9505569889032476</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.574027810104794</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>3923230322.901174</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002322307528217083</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>18</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.330741556022922</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8872175227404535</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.330741556022922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>5582555969.346697</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.00218795510398893</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>15</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.864401196732785</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9773499176152601</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.864401196732785</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4921927709.557388</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001579078575358301</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>20</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.261975503588</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9492195027261964</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.261975503588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>9357179108.716236</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005460124592301887</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>13</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.713476153533769</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.842089777073409</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.713476153533769</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>6098036981.780334</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004383246315476885</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.991642245656578</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9476593074501555</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.991642245656578</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6098581091.342273</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003447629319532455</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>12</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.81556271915609</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9454765048440541</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.81556271915609</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7442557813.601224</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004847294916434895</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>10</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3.011360971244018</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8125424159731328</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-3.011360971244018</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3643174599.209717</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003927612112889267</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6469495562572569</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.959721519193828</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.083476828370312</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.959721519193828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7873550483.565827</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001770142497814511</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>15</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.618052840661087</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-0.4803844614152614</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.618052840661087</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6946368587.061997</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001056808408187913</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>9</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.356991932772638</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.020451880831761</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.356991932772638</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5272765746.474643</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002004682949619832</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>10</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.078092563383413</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9288217941078165</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.078092563383413</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7240442101.429991</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002338635828461401</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>18</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.08707887835224504</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693103</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.440981952433854</v>
-      </c>
-      <c r="M96" t="n">
-        <v>-0.3434080263229219</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.440981952433854</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5219019139.436573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005040545927862784</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>12</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.027242295505252</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8938019692091724</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.027242295505252</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7635213005.571594</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003772851356097585</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>12</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.702809227880755</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8644233267632517</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.702809227880755</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3080220854.186184</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004900925949308795</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>15</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.649403737691916</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8968736735561452</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.649403737691916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5296613772.582118</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003277913640761423</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>12</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.7988250572275083</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.817924240482754</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.9794046931082431</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.817924240482754</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6249775615.940067</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001446308755422044</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>15</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6031502704506015</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.885462064450058</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8794258484558245</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.885462064450058</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_65.xlsx
+++ b/output/fit_clients/fit_round_65.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6321733724.213583</v>
+        <v>2213813969.219236</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004705785680327841</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>17</v>
+        <v>0.09733210974128989</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03676254919318915</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1106907008.885399</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>6144268928.773256</v>
+        <v>2430419771.32929</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005850387818342928</v>
-      </c>
-      <c r="G3" t="b">
+        <v>0.1532775831079881</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03196385597947939</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>15</v>
+      <c r="J3" t="n">
+        <v>1215209992.276499</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>529</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3188328629.547876</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1061968477679318</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03830317071925749</v>
+      </c>
+      <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
-        <v>534</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4133812707.412478</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.003277727143227905</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14</v>
+      <c r="I4" t="n">
+        <v>23</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1594164271.341765</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3917562212.275381</v>
+        <v>3043002764.192794</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004305175021753823</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1059542705398212</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04075600571082288</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1521501448.993511</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6292602778.726601</v>
+        <v>1808346195.079234</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002747274347488309</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>14</v>
+        <v>0.09375020304386644</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03820252783413164</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>904173147.7675269</v>
       </c>
     </row>
     <row r="7">
@@ -623,19 +663,25 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8702116736.123625</v>
+        <v>2853651238.310771</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0008812969479801473</v>
-      </c>
-      <c r="G7" t="b">
+        <v>0.09831240803340253</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03892702415170063</v>
+      </c>
+      <c r="H7" t="b">
         <v>1</v>
       </c>
-      <c r="H7" t="n">
-        <v>21</v>
+      <c r="I7" t="n">
+        <v>20</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1426825598.053528</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7072605330.866593</v>
+        <v>2958508012.78461</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002196498501421885</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>18</v>
+        <v>0.2115931630302782</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02322209484798645</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1479254059.540767</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6500678256.384487</v>
+        <v>1575632045.256778</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004588388457750003</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>20</v>
+        <v>0.138895822886304</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0232765023445928</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>787816108.0319437</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3296461587.490481</v>
+        <v>5439695503.866449</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004788749981879695</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1813512955953893</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.041822840143792</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>27</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2719847885.171247</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3787383752.305421</v>
+        <v>4284058773.99053</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001114031995699752</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1277610232324688</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03279013640326834</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>28</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2142029419.40927</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8307945596.606232</v>
+        <v>2679001964.531858</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002140916393600132</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>18</v>
+        <v>0.1722952723553626</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04775967502813593</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>22</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1339500970.785528</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4985175400.297654</v>
+        <v>4305738623.618038</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004272058024323136</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>14</v>
+        <v>0.09869441805277968</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02733166344591401</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>22</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2152869351.103681</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7644525842.691961</v>
+        <v>3589909772.845162</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002709024776163079</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>15</v>
+        <v>0.1645538263625514</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04076802219359596</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1794954878.043639</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5480681423.841641</v>
+        <v>1503166177.382622</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004689610111436447</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>19</v>
+        <v>0.1092211688058623</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03146458162105489</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>751583174.807634</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>7894881010.354376</v>
+        <v>2405306794.636786</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004005629218437762</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>21</v>
+        <v>0.1064631037670381</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04187778497048682</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>11</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1202653436.488139</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6868445566.886067</v>
+        <v>4585022958.6194</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002246660715877615</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>13</v>
+        <v>0.1493467765785513</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03607838987659376</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>19</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2292511484.882517</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5967734994.051589</v>
+        <v>3987276720.144641</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001327578056261353</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>17</v>
+        <v>0.1616255453740698</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03127243888373166</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1993638318.722162</v>
       </c>
     </row>
     <row r="19">
@@ -959,19 +1071,25 @@
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3262658046.026064</v>
+        <v>1262041807.447685</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002269410861566738</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1909846932063712</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01851159476824673</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>631020996.6127543</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5752513276.920428</v>
+        <v>2717935647.54171</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001030688257402116</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
+        <v>0.1557603195849071</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02440925427030031</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>7</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1358967773.520565</v>
       </c>
     </row>
     <row r="21">
@@ -1015,19 +1139,25 @@
         <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7119847826.689391</v>
+        <v>1668351462.170669</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004925408050933998</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>12</v>
+        <v>0.0942569910447966</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03455230247173944</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>834175798.6408366</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4660393144.496152</v>
+        <v>2581030930.337617</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005258351269705228</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.1426994942014232</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05038256040261715</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>18</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1290515551.686846</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6056606992.507942</v>
+        <v>1175594477.888318</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001339509113969883</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>12</v>
+        <v>0.1361535345120631</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03852960535960939</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>587797279.4427214</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>8191394499.908778</v>
+        <v>3573427779.458941</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004974610269729742</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>17</v>
+        <v>0.1102592603264275</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03537365782571818</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>20</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1786713886.29126</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6030620391.229538</v>
+        <v>1335043279.712544</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003739779230682632</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>13</v>
+        <v>0.07560837205552715</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02514300357480752</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>667521626.6460243</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4318437258.377547</v>
+        <v>1115550599.321306</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001064344338128275</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.09701635767880516</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03231911712735999</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>557775299.9397261</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>6886058062.690228</v>
+        <v>4457550404.434444</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003224817623271607</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>18</v>
+        <v>0.1322736437605694</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01974150214730252</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2228775189.527025</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>5647632743.173568</v>
+        <v>3540785916.047165</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004432884256583134</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>16</v>
+        <v>0.1431075951203291</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03402754683798426</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>21</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1770393016.114352</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5865479517.3681</v>
+        <v>4753009867.912609</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001616223317133839</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>17</v>
+        <v>0.09806197714121828</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03020203940355656</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>29</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2376504898.486991</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8581998313.975961</v>
+        <v>2141017794.652492</v>
       </c>
       <c r="F30" t="n">
-        <v>0.004055562764157503</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>22</v>
+        <v>0.1116968855943042</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0398527934203943</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1070508950.778763</v>
       </c>
     </row>
     <row r="31">
@@ -1295,19 +1479,25 @@
         <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6242788954.291705</v>
+        <v>1353811590.624255</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003482902141738113</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>13</v>
+        <v>0.1100173830562202</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05030795917653046</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>676905710.4826666</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4895340212.80256</v>
+        <v>1434217758.379441</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001226485905191689</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07653228842313627</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03417141632208386</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>717108933.8074341</v>
       </c>
     </row>
     <row r="33">
@@ -1351,19 +1547,25 @@
         <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>6388838877.26618</v>
+        <v>2389632693.44459</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003080426318545505</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>14</v>
+        <v>0.1952686431010879</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.06108533128621236</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>19</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1194816394.22501</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7855269610.843799</v>
+        <v>1244911374.124168</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004267031350729028</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>20</v>
+        <v>0.07648152145424439</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02021023396933327</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>622455684.6219676</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6821986415.956898</v>
+        <v>1052203236.008649</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001964267692019759</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>17</v>
+        <v>0.08724793173993348</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03586288612333714</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>526101625.0324982</v>
       </c>
     </row>
     <row r="36">
@@ -1435,19 +1649,25 @@
         <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>8146519458.374547</v>
+        <v>2507871558.467114</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002849038553969631</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>18</v>
+        <v>0.1530882730672846</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02592453444715496</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>16</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1253935800.481646</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>493</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2895790994.203249</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.09949216883272978</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03406624395371625</v>
+      </c>
+      <c r="H37" t="b">
         <v>1</v>
       </c>
-      <c r="D37" t="n">
-        <v>573</v>
-      </c>
-      <c r="E37" t="n">
-        <v>4763868222.691286</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.005503450546892732</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>16</v>
+      <c r="I37" t="n">
+        <v>18</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1447895647.522027</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2926678399.009315</v>
+        <v>1503905937.162136</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0032119754519514</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.100837254469036</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03134298389952218</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>751953017.1747388</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>6003027319.497149</v>
+        <v>1755239416.228286</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002832422137325883</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
+        <v>0.1883005671616291</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03059446566570814</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>877619739.6961671</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>7229957248.770377</v>
+        <v>1610868345.481303</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004927370361994165</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>19</v>
+        <v>0.128963422581284</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05656527929291342</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>805434111.0778897</v>
       </c>
     </row>
     <row r="41">
@@ -1575,19 +1819,25 @@
         <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5468412968.52383</v>
+        <v>1849824848.141891</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001142546539896157</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>19</v>
+        <v>0.1019507664038128</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04389655517245655</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>924912512.9152339</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6808410788.357782</v>
+        <v>2721585939.712153</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004991959824570748</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>17</v>
+        <v>0.09520806653726169</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04388777180266244</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>22</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1360792910.994777</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6633112360.128296</v>
+        <v>2980658270.871767</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004921981310447381</v>
-      </c>
-      <c r="G43" t="b">
+        <v>0.1460589668088016</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01677330767601286</v>
+      </c>
+      <c r="H43" t="b">
         <v>1</v>
       </c>
-      <c r="H43" t="n">
-        <v>15</v>
+      <c r="I43" t="n">
+        <v>21</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1490329135.671621</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6773403151.277187</v>
+        <v>2063094707.264359</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001701495457959044</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>16</v>
+        <v>0.07952789093226038</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02453367266186347</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1031547472.44626</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4093426161.547064</v>
+        <v>2510453031.261464</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001526535041622805</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.15565471059719</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0492173481162056</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1255226557.80135</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>9530351030.290594</v>
+        <v>4994208062.216713</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004820143020504649</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
+        <v>0.1744436760265307</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05226432766711921</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>23</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2497104057.490057</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8810305846.408852</v>
+        <v>4082142815.106693</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002394943238553018</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
+        <v>0.1912745781025087</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05853116912340117</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>17</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2041071411.24362</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7214864608.151066</v>
+        <v>3281867859.004546</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002459467464733282</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>12</v>
+        <v>0.06799563742668477</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03862335018497811</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>22</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1640934005.49988</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5206461424.030852</v>
+        <v>1858075035.084468</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00488915071196048</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1648739984751117</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03462551644393398</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>929037493.7602434</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7229363717.412268</v>
+        <v>3521164173.226333</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002936100931915625</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>18</v>
+        <v>0.1371026717357527</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05255820289603024</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>22</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1760582109.252253</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4580079362.888484</v>
+        <v>987040471.1988049</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004773619822945641</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1865429636647073</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.05279788318645443</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>493520321.5293201</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>7289400932.624094</v>
+        <v>3739388798.155057</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001476877744384346</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>16</v>
+        <v>0.1210462441579244</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04396787024219727</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>27</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1869694470.794979</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5670282059.506502</v>
+        <v>2609199450.489392</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003435400462958363</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>12</v>
+        <v>0.1650247144197739</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02348106499600882</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>18</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1304599784.533496</v>
       </c>
     </row>
     <row r="54">
@@ -1939,19 +2261,25 @@
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5245079787.678576</v>
+        <v>3346858862.920786</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005572701072195842</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>18</v>
+        <v>0.1109460953748906</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04682846006042679</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>22</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1673429444.14491</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8313795715.623703</v>
+        <v>3026364057.760751</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002704904713971867</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>21</v>
+        <v>0.1502001024034051</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02587583301958289</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>16</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1513181960.704737</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5367782437.397918</v>
+        <v>1389842017.57171</v>
       </c>
       <c r="F56" t="n">
-        <v>0.001833663486773851</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>11</v>
+        <v>0.1137871038791925</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05161080089626578</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>694921067.2154859</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>7729051297.512709</v>
+        <v>3414610017.109199</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003486235420724592</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>14</v>
+        <v>0.1277357416339296</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02765641983473875</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>21</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1707305047.678801</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5497540009.797482</v>
+        <v>1235624884.886938</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001831876344828663</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>15</v>
+        <v>0.1802760318988123</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0352489543527817</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>617812497.5789797</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6876569774.514547</v>
+        <v>4759286892.501082</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003129803802652037</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>8</v>
+        <v>0.1016851306038444</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03820388343278278</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>17</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2379643385.484711</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3829814924.442532</v>
+        <v>2514235809.822325</v>
       </c>
       <c r="F60" t="n">
-        <v>0.004196060892902379</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1387400178892767</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03131840770086069</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>20</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1257117924.21279</v>
       </c>
     </row>
     <row r="61">
@@ -2135,19 +2499,25 @@
         <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5751538766.153761</v>
+        <v>2145722522.060083</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004389718163585915</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>14</v>
+        <v>0.1700466158070598</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.03238099721727399</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>22</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1072861321.95581</v>
       </c>
     </row>
     <row r="62">
@@ -2163,19 +2533,25 @@
         <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5898431060.854926</v>
+        <v>1435620284.775805</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003680702387857416</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>11</v>
+        <v>0.1849983088525562</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04685275742115124</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>717810115.6974002</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6158515415.038433</v>
+        <v>5347072181.592415</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004513920467235032</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>16</v>
+        <v>0.09298703535325786</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04022418441189081</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>19</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2673536092.966017</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4339257224.738913</v>
+        <v>3877172826.468247</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005371681273342941</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1448450590825268</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02209653991984054</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>20</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1938586440.356689</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>527</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4361301526.283902</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.141551837509061</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02912789014904419</v>
+      </c>
+      <c r="H65" t="b">
         <v>1</v>
       </c>
-      <c r="D65" t="n">
-        <v>507</v>
-      </c>
-      <c r="E65" t="n">
-        <v>4894993708.961814</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.004484962980402792</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>17</v>
+      <c r="I65" t="n">
+        <v>23</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2180650760.039877</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6540676279.694057</v>
+        <v>4903610141.55378</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002998511642494731</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>12</v>
+        <v>0.1533877759473111</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03346190018113815</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>20</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2451805092.649609</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6520095073.218022</v>
+        <v>2680632049.632121</v>
       </c>
       <c r="F67" t="n">
-        <v>0.003982180905589845</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>11</v>
+        <v>0.1022617975467981</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04678551900887094</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>22</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1340316069.979564</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8387191923.091318</v>
+        <v>5284834252.288579</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002566896507908236</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>14</v>
+        <v>0.126070694613308</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04993849321196686</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>21</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2642417199.685279</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6159946496.88643</v>
+        <v>2190147195.683948</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001165735122110369</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>14</v>
+        <v>0.1764953829413593</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05918013650878723</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1095073627.260595</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6013289039.851423</v>
+        <v>2596256676.138096</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003087253176279951</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>17</v>
+        <v>0.0640292850175742</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04362882872006019</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>18</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1298128288.66374</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3414595847.232759</v>
+        <v>3729376809.316407</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003511402679446483</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1775961870033616</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03360752192934217</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>24</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1864688415.434993</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>8057365480.365053</v>
+        <v>1603979660.664469</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002456074230188363</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>13</v>
+        <v>0.1045379660811929</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04370906362842246</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>801989840.4461339</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5227584536.213624</v>
+        <v>3146091835.844061</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001436762300920307</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>15</v>
+        <v>0.1088020380460606</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04521483180647938</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1573045900.408872</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4912813814.463632</v>
+        <v>2454002174.090836</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003214916149537021</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15</v>
+        <v>0.1833009270087083</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02231311295503029</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>23</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1227001199.546566</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5323599491.025342</v>
+        <v>1601386405.541208</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00305012757281051</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>12</v>
+        <v>0.1252936067695307</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03041864951477376</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>800693204.258913</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4800615161.669627</v>
+        <v>3971077498.217104</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002842635986104279</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>13</v>
+        <v>0.08286119319602567</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.03373522850648655</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>14</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1985538732.501393</v>
       </c>
     </row>
     <row r="77">
@@ -2583,19 +3043,25 @@
         <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5227849063.351268</v>
+        <v>2309160987.363664</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004373228244206485</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>21</v>
+        <v>0.1749443669946955</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.03008944751883318</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1154580600.752805</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6959783565.073191</v>
+        <v>3469680777.435663</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003237429283993617</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>15</v>
+        <v>0.1241173121860468</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0547568305461721</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>23</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1734840392.290486</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>5641096350.272733</v>
+        <v>1331092164.010248</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002050324251931859</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>13</v>
+        <v>0.15790915519083</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03853259548285096</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>665546086.5376265</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6827625230.157839</v>
+        <v>5504967930.336185</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002977256223321764</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>21</v>
+        <v>0.1020103572826597</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03579963770018235</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>13</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2752484039.37321</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5572604261.929172</v>
+        <v>3453812735.568755</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004865689324909783</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>13</v>
+        <v>0.08430386745031768</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02640990113336258</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>14</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1726906310.557802</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7989380779.74662</v>
+        <v>4678128911.175048</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004607552058394919</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>12</v>
+        <v>0.1835252131060015</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02289995027633484</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>24</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2339064457.418276</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10398378968.5526</v>
+        <v>2491046087.05806</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003460258051211561</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>16</v>
+        <v>0.1206549541248909</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03469255391343119</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1245523089.843257</v>
       </c>
     </row>
     <row r="84">
@@ -2779,19 +3281,25 @@
         <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6551850643.317052</v>
+        <v>2236979516.569199</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005368738279308548</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>17</v>
+        <v>0.11561350444981</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03391409697144292</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1118489728.481615</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3923230322.901174</v>
+        <v>2555572164.522623</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002322307528217083</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
+        <v>0.1476268584828458</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04632529078863294</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1277786093.233892</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>5582555969.346697</v>
+        <v>2774779161.264086</v>
       </c>
       <c r="F86" t="n">
-        <v>0.00218795510398893</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>18</v>
+        <v>0.1077360904361521</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0261749630902495</v>
+      </c>
+      <c r="H86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1387389715.905433</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4921927709.557388</v>
+        <v>1225350061.036303</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001579078575358301</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1831385626860204</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03609999877151562</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>612675092.488623</v>
       </c>
     </row>
     <row r="88">
@@ -2891,19 +3417,25 @@
         <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>9357179108.716236</v>
+        <v>3361010985.903691</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005460124592301887</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>14</v>
+        <v>0.1664094516534666</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03352856399636847</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>26</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1680505558.947554</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>6098036981.780334</v>
+        <v>2744647910.487827</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004383246315476885</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>14</v>
+        <v>0.1042355191957804</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03351688289739696</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1372324011.963471</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6098581091.342273</v>
+        <v>1896413543.573009</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003447629319532455</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>11</v>
+        <v>0.1372194790418935</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03882359789468522</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>948206822.9682701</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7442557813.601224</v>
+        <v>1801310579.839742</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004847294916434895</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>20</v>
+        <v>0.1678921946167758</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05204857698690434</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>900655288.569072</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3643174599.209717</v>
+        <v>2857258446.271797</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003927612112889267</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.06899816085879872</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03292897009081328</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>13</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1428629233.966604</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7873550483.565827</v>
+        <v>3949499859.129225</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001770142497814511</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>22</v>
+        <v>0.1016789137031467</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04523570768243259</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>19</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1974749933.350778</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6946368587.061997</v>
+        <v>2161339393.449328</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001056808408187913</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>20</v>
+        <v>0.1669916433434709</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03439694226106307</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1080669715.968582</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5272765746.474643</v>
+        <v>2759688110.21435</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002004682949619832</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>16</v>
+        <v>0.1355311946552722</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04603958848935735</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>15</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1379844072.215394</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7240442101.429991</v>
+        <v>1534976922.836167</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002338635828461401</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>17</v>
+        <v>0.09000402886162794</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04691456349200863</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>767488497.9228216</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5219019139.436573</v>
+        <v>3933723955.486245</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005040545927862784</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>17</v>
+        <v>0.1678540364107794</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.01807667051264827</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>21</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1966862028.697693</v>
       </c>
     </row>
     <row r="98">
@@ -3171,19 +3757,25 @@
         <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7635213005.571594</v>
+        <v>3142321696.096307</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003772851356097585</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>24</v>
+        <v>0.09327909171985707</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02416154561092485</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>17</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1571160842.292548</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3080220854.186184</v>
+        <v>2731728780.564065</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004900925949308795</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1056691141887322</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03509385766086192</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>21</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1365864356.675426</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5296613772.582118</v>
+        <v>3364245158.860614</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003277913640761423</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>6</v>
+        <v>0.1228356281920342</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01996294066722362</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>20</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1682122599.269539</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6249775615.940067</v>
+        <v>2799658032.857838</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001446308755422044</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>21</v>
+        <v>0.2014639894996719</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04946044256054272</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>27</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1399829078.906661</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_65.xlsx
+++ b/output/fit_clients/fit_round_65.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2213813969.219236</v>
+        <v>2273249656.441344</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09733210974128989</v>
+        <v>0.08614357949831822</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03676254919318915</v>
+        <v>0.02935934820325434</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1106907008.885399</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2430419771.32929</v>
+        <v>1977358406.531113</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1532775831079881</v>
+        <v>0.1135385003898313</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03196385597947939</v>
+        <v>0.03161572082720852</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1215209992.276499</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3188328629.547876</v>
+        <v>3572500558.798425</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1061968477679318</v>
+        <v>0.1213308008337176</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03830317071925749</v>
+        <v>0.03724289153438859</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>23</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1594164271.341765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3043002764.192794</v>
+        <v>3091749551.210954</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1059542705398212</v>
+        <v>0.06701702127145881</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04075600571082288</v>
+        <v>0.03299546306991673</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>25</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1521501448.993511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1808346195.079234</v>
+        <v>2751629374.156743</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09375020304386644</v>
+        <v>0.09696023376663541</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03820252783413164</v>
+        <v>0.04898765508050895</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>904173147.7675269</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2853651238.310771</v>
+        <v>2494307496.82033</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09831240803340253</v>
+        <v>0.08927501792357143</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03892702415170063</v>
+        <v>0.03641113597867071</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>20</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1426825598.053528</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2958508012.78461</v>
+        <v>3340877609.150076</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2115931630302782</v>
+        <v>0.1550479000242765</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02322209484798645</v>
+        <v>0.02673587217394092</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>21</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1479254059.540767</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1575632045.256778</v>
+        <v>1974078614.207117</v>
       </c>
       <c r="F9" t="n">
-        <v>0.138895822886304</v>
+        <v>0.1738884157355724</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0232765023445928</v>
+        <v>0.03223598997442874</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>787816108.0319437</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5439695503.866449</v>
+        <v>4523015236.855826</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1813512955953893</v>
+        <v>0.2080321116032361</v>
       </c>
       <c r="G10" t="n">
-        <v>0.041822840143792</v>
+        <v>0.04177696623436606</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>27</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2719847885.171247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4284058773.99053</v>
+        <v>2931255273.56327</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1277610232324688</v>
+        <v>0.1632021776279513</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03279013640326834</v>
+        <v>0.03608750729267658</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>28</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2142029419.40927</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2679001964.531858</v>
+        <v>2810248695.474171</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1722952723553626</v>
+        <v>0.1811902708019621</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04775967502813593</v>
+        <v>0.04207821492902886</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>22</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1339500970.785528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4305738623.618038</v>
+        <v>4125389963.38938</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09869441805277968</v>
+        <v>0.06665500871591573</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02733166344591401</v>
+        <v>0.02407684257751419</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>22</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2152869351.103681</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3589909772.845162</v>
+        <v>3334221876.004659</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1645538263625514</v>
+        <v>0.1876562515404587</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04076802219359596</v>
+        <v>0.03383409848871248</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>21</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1794954878.043639</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1503166177.382622</v>
+        <v>1833616455.413848</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1092211688058623</v>
+        <v>0.0785715840483466</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03146458162105489</v>
+        <v>0.03011585416051991</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>751583174.807634</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2405306794.636786</v>
+        <v>1983663369.08103</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1064631037670381</v>
+        <v>0.09907116013842664</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04187778497048682</v>
+        <v>0.0331617620964923</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1202653436.488139</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4585022958.6194</v>
+        <v>4060080016.44821</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1493467765785513</v>
+        <v>0.1489412954640366</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03607838987659376</v>
+        <v>0.03686791828953438</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>19</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2292511484.882517</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3987276720.144641</v>
+        <v>3983779030.883379</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1616255453740698</v>
+        <v>0.1160972265118004</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03127243888373166</v>
+        <v>0.03312510889969381</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>21</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1993638318.722162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1262041807.447685</v>
+        <v>927872692.2683015</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1909846932063712</v>
+        <v>0.1166918174209675</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01851159476824673</v>
+        <v>0.01989211110207669</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>631020996.6127543</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2717935647.54171</v>
+        <v>2042399766.68865</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1557603195849071</v>
+        <v>0.1337862824552205</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02440925427030031</v>
+        <v>0.02415989683561331</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1358967773.520565</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1668351462.170669</v>
+        <v>2404614549.134183</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0942569910447966</v>
+        <v>0.07828135298131665</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03455230247173944</v>
+        <v>0.04438927708100113</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>834175798.6408366</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2581030930.337617</v>
+        <v>2857588632.128191</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1426994942014232</v>
+        <v>0.1123336589448554</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05038256040261715</v>
+        <v>0.03629713091647885</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>18</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1290515551.686846</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1175594477.888318</v>
+        <v>1284204151.025741</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1361535345120631</v>
+        <v>0.1424197101157087</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03852960535960939</v>
+        <v>0.04737901183462094</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>587797279.4427214</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3573427779.458941</v>
+        <v>4084717567.427995</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1102592603264275</v>
+        <v>0.1394912681275357</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03537365782571818</v>
+        <v>0.028310733070157</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>20</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1786713886.29126</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1335043279.712544</v>
+        <v>1336657697.822622</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07560837205552715</v>
+        <v>0.1049349043885902</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02514300357480752</v>
+        <v>0.02168200098717568</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>667521626.6460243</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1115550599.321306</v>
+        <v>1272323811.798052</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09701635767880516</v>
+        <v>0.1148412809502949</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03231911712735999</v>
+        <v>0.02792055549105034</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>557775299.9397261</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4457550404.434444</v>
+        <v>3401479876.674263</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1322736437605694</v>
+        <v>0.1106496751805556</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01974150214730252</v>
+        <v>0.02012561649618258</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>14</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2228775189.527025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3540785916.047165</v>
+        <v>2714333063.969376</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1431075951203291</v>
+        <v>0.0946001438104781</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03402754683798426</v>
+        <v>0.03716962670794606</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>21</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1770393016.114352</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4753009867.912609</v>
+        <v>4930016490.341434</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09806197714121828</v>
+        <v>0.1050834687330412</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03020203940355656</v>
+        <v>0.02823058194124897</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>29</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2376504898.486991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2141017794.652492</v>
+        <v>2051364296.623565</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1116968855943042</v>
+        <v>0.1268729993948358</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0398527934203943</v>
+        <v>0.0325100897529796</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1070508950.778763</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1353811590.624255</v>
+        <v>1173925318.196869</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1100173830562202</v>
+        <v>0.08378400345820691</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05030795917653046</v>
+        <v>0.04799039862018326</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>676905710.4826666</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1434217758.379441</v>
+        <v>1856039327.358913</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07653228842313627</v>
+        <v>0.1138715141092788</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03417141632208386</v>
+        <v>0.02417683931868403</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>717108933.8074341</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2389632693.44459</v>
+        <v>2652253164.922661</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1952686431010879</v>
+        <v>0.1520878985355856</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06108533128621236</v>
+        <v>0.04357297046318808</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>19</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1194816394.22501</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1244911374.124168</v>
+        <v>1404891685.799286</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07648152145424439</v>
+        <v>0.1166218835608346</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02021023396933327</v>
+        <v>0.01816386022842791</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>622455684.6219676</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1052203236.008649</v>
+        <v>1312287076.39446</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08724793173993348</v>
+        <v>0.08065163037133818</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03586288612333714</v>
+        <v>0.03000368604369023</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>526101625.0324982</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2507871558.467114</v>
+        <v>2646676345.418628</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1530882730672846</v>
+        <v>0.1534979343266149</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02592453444715496</v>
+        <v>0.02439369291099533</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>16</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1253935800.481646</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2895790994.203249</v>
+        <v>2204520403.071929</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09949216883272978</v>
+        <v>0.08845002728094023</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03406624395371625</v>
+        <v>0.03039103068873765</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>18</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1447895647.522027</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1503905937.162136</v>
+        <v>1870114695.136537</v>
       </c>
       <c r="F38" t="n">
-        <v>0.100837254469036</v>
+        <v>0.1099410113477662</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03134298389952218</v>
+        <v>0.03837870768309709</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>751953017.1747388</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1755239416.228286</v>
+        <v>1883475209.683595</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1883005671616291</v>
+        <v>0.1169637102819187</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03059446566570814</v>
+        <v>0.02965658523547829</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>877619739.6961671</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1610868345.481303</v>
+        <v>1522481208.917955</v>
       </c>
       <c r="F40" t="n">
-        <v>0.128963422581284</v>
+        <v>0.1371325564803204</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05656527929291342</v>
+        <v>0.04193165483585699</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>805434111.0778897</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1849824848.141891</v>
+        <v>1774481669.020973</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1019507664038128</v>
+        <v>0.1173225162651926</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04389655517245655</v>
+        <v>0.02883874853098503</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>16</v>
-      </c>
-      <c r="J41" t="n">
-        <v>924912512.9152339</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2721585939.712153</v>
+        <v>3857159362.905777</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09520806653726169</v>
+        <v>0.09086213824971748</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04388777180266244</v>
+        <v>0.04538188697175566</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>22</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1360792910.994777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2980658270.871767</v>
+        <v>2850682691.181738</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1460589668088016</v>
+        <v>0.1709100824861393</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01677330767601286</v>
+        <v>0.01644734429597449</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>21</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1490329135.671621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2063094707.264359</v>
+        <v>1767786657.225858</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07952789093226038</v>
+        <v>0.08235117898416543</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02453367266186347</v>
+        <v>0.03421241479459099</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1031547472.44626</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2510453031.261464</v>
+        <v>1878093417.329596</v>
       </c>
       <c r="F45" t="n">
-        <v>0.15565471059719</v>
+        <v>0.1887114658897839</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0492173481162056</v>
+        <v>0.04355575701708223</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1255226557.80135</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4994208062.216713</v>
+        <v>5011825799.39817</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1744436760265307</v>
+        <v>0.1507775165251939</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05226432766711921</v>
+        <v>0.04166539530502203</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>23</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2497104057.490057</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4082142815.106693</v>
+        <v>4275997940.130224</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1912745781025087</v>
+        <v>0.1642498502759266</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05853116912340117</v>
+        <v>0.03845390519580445</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>17</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2041071411.24362</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3281867859.004546</v>
+        <v>2893354445.995264</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06799563742668477</v>
+        <v>0.09748434945531785</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03862335018497811</v>
+        <v>0.03391476307462592</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>22</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1640934005.49988</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1858075035.084468</v>
+        <v>1869197677.307838</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1648739984751117</v>
+        <v>0.1313327559654003</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03462551644393398</v>
+        <v>0.02758007749635386</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>929037493.7602434</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3521164173.226333</v>
+        <v>3241389996.273197</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1371026717357527</v>
+        <v>0.1658575180495158</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05255820289603024</v>
+        <v>0.04152867300648096</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>22</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1760582109.252253</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>987040471.1988049</v>
+        <v>955358203.4760276</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1865429636647073</v>
+        <v>0.1631890122712066</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05279788318645443</v>
+        <v>0.03841141744165365</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>493520321.5293201</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3739388798.155057</v>
+        <v>4460149488.258837</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1210462441579244</v>
+        <v>0.1092049632587934</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04396787024219727</v>
+        <v>0.05152782482363092</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>27</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1869694470.794979</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2609199450.489392</v>
+        <v>3656949992.315879</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1650247144197739</v>
+        <v>0.133895875562236</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02348106499600882</v>
+        <v>0.03107347944521398</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>18</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1304599784.533496</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3346858862.920786</v>
+        <v>3309110038.966692</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1109460953748906</v>
+        <v>0.1488558659327196</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04682846006042679</v>
+        <v>0.0488951323123433</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>22</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1673429444.14491</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3026364057.760751</v>
+        <v>4548861812.134791</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1502001024034051</v>
+        <v>0.1609743508173366</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02587583301958289</v>
+        <v>0.03125849443736235</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>16</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1513181960.704737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1389842017.57171</v>
+        <v>1160107588.956031</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1137871038791925</v>
+        <v>0.1117586570283155</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05161080089626578</v>
+        <v>0.03878077055861855</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>694921067.2154859</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3414610017.109199</v>
+        <v>3709141957.907064</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1277357416339296</v>
+        <v>0.1628563238663882</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02765641983473875</v>
+        <v>0.02260739476576291</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>21</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1707305047.678801</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1235624884.886938</v>
+        <v>1158558006.099065</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1802760318988123</v>
+        <v>0.1304293796128374</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0352489543527817</v>
+        <v>0.02426545451932346</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>617812497.5789797</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4759286892.501082</v>
+        <v>4043998973.073507</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1016851306038444</v>
+        <v>0.1242383008313635</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03820388343278278</v>
+        <v>0.03412624951623295</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>17</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2379643385.484711</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2514235809.822325</v>
+        <v>3704998833.980238</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1387400178892767</v>
+        <v>0.1402868783805716</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03131840770086069</v>
+        <v>0.03292265513988183</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>20</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1257117924.21279</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2145722522.060083</v>
+        <v>2103816973.767618</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1700466158070598</v>
+        <v>0.1442401975669366</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03238099721727399</v>
+        <v>0.02114248203911141</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>22</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1072861321.95581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1435620284.775805</v>
+        <v>1597199096.708867</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1849983088525562</v>
+        <v>0.1625887591389523</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04685275742115124</v>
+        <v>0.04347741355152206</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>717810115.6974002</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5347072181.592415</v>
+        <v>3778796921.108412</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09298703535325786</v>
+        <v>0.08906628860773247</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04022418441189081</v>
+        <v>0.038142316488062</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>19</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2673536092.966017</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3877172826.468247</v>
+        <v>4688752483.960339</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1448450590825268</v>
+        <v>0.1435551080663856</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02209653991984054</v>
+        <v>0.02883975645293244</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>20</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1938586440.356689</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4361301526.283902</v>
+        <v>3714505174.221934</v>
       </c>
       <c r="F65" t="n">
-        <v>0.141551837509061</v>
+        <v>0.1302576611558359</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02912789014904419</v>
+        <v>0.02127044317925837</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>23</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2180650760.039877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4903610141.55378</v>
+        <v>4683415950.050711</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1533877759473111</v>
+        <v>0.1053013122721457</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03346190018113815</v>
+        <v>0.04460760956016641</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>20</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2451805092.649609</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2680632049.632121</v>
+        <v>2532886155.817986</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1022617975467981</v>
+        <v>0.06576485910823</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04678551900887094</v>
+        <v>0.0452198948522261</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>22</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1340316069.979564</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5284834252.288579</v>
+        <v>5843141713.907178</v>
       </c>
       <c r="F68" t="n">
-        <v>0.126070694613308</v>
+        <v>0.1167904144556721</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04993849321196686</v>
+        <v>0.03987060076030337</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>21</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2642417199.685279</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2190147195.683948</v>
+        <v>2471277835.560093</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1764953829413593</v>
+        <v>0.1239457285903813</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05918013650878723</v>
+        <v>0.04427326256468581</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1095073627.260595</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2596256676.138096</v>
+        <v>3254261580.515386</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0640292850175742</v>
+        <v>0.06834806986215701</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04362882872006019</v>
+        <v>0.03895903646803384</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>18</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1298128288.66374</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3729376809.316407</v>
+        <v>5656226281.296525</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1775961870033616</v>
+        <v>0.1433068245073754</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03360752192934217</v>
+        <v>0.03152152188491498</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>24</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1864688415.434993</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1603979660.664469</v>
+        <v>1921050845.841666</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1045379660811929</v>
+        <v>0.09772896667401537</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04370906362842246</v>
+        <v>0.04817226184402799</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>801989840.4461339</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3146091835.844061</v>
+        <v>2613214813.933311</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1088020380460606</v>
+        <v>0.0856263755556573</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04521483180647938</v>
+        <v>0.04253721887191243</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>25</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1573045900.408872</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2454002174.090836</v>
+        <v>2941833911.927226</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1833009270087083</v>
+        <v>0.1562396242353125</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02231311295503029</v>
+        <v>0.03383193273666585</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>23</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1227001199.546566</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1601386405.541208</v>
+        <v>2425290848.855825</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1252936067695307</v>
+        <v>0.1273296132178514</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03041864951477376</v>
+        <v>0.03347125120043182</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>800693204.258913</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3971077498.217104</v>
+        <v>4704646767.254184</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08286119319602567</v>
+        <v>0.1202054750005831</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03373522850648655</v>
+        <v>0.03226922916583931</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>14</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1985538732.501393</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2309160987.363664</v>
+        <v>2057070651.413847</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1749443669946955</v>
+        <v>0.1328193520461404</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03008944751883318</v>
+        <v>0.02694086163623252</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1154580600.752805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3469680777.435663</v>
+        <v>3457766315.222068</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1241173121860468</v>
+        <v>0.09784461217650398</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0547568305461721</v>
+        <v>0.04533801539825096</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>23</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1734840392.290486</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1331092164.010248</v>
+        <v>1270570167.871153</v>
       </c>
       <c r="F79" t="n">
-        <v>0.15790915519083</v>
+        <v>0.1536510163096804</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03853259548285096</v>
+        <v>0.03876771196715421</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>665546086.5376265</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5504967930.336185</v>
+        <v>3469997575.40081</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1020103572826597</v>
+        <v>0.1090751346160698</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03579963770018235</v>
+        <v>0.0306836270218215</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>13</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2752484039.37321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3453812735.568755</v>
+        <v>4248871785.460642</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08430386745031768</v>
+        <v>0.1104215896474563</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02640990113336258</v>
+        <v>0.02148592380828225</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>14</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1726906310.557802</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4678128911.175048</v>
+        <v>4500647912.447371</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1835252131060015</v>
+        <v>0.1542227663260251</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02289995027633484</v>
+        <v>0.02524560346124049</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>24</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2339064457.418276</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2491046087.05806</v>
+        <v>2491081693.899313</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1206549541248909</v>
+        <v>0.1236036982521439</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03469255391343119</v>
+        <v>0.03994766912982348</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1245523089.843257</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2236979516.569199</v>
+        <v>2549513374.040971</v>
       </c>
       <c r="F84" t="n">
-        <v>0.11561350444981</v>
+        <v>0.08055622622713716</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03391409697144292</v>
+        <v>0.03671472932928049</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1118489728.481615</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2555572164.522623</v>
+        <v>3356810462.206106</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1476268584828458</v>
+        <v>0.1391738998791985</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04632529078863294</v>
+        <v>0.03692376142989112</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>24</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1277786093.233892</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2774779161.264086</v>
+        <v>2508272442.714371</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1077360904361521</v>
+        <v>0.1477293363177013</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0261749630902495</v>
+        <v>0.02538210289524571</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1387389715.905433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1225350061.036303</v>
+        <v>1149827272.754922</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1831385626860204</v>
+        <v>0.1675756555551143</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03609999877151562</v>
+        <v>0.04104825930541647</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>612675092.488623</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3361010985.903691</v>
+        <v>3108808234.080011</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1664094516534666</v>
+        <v>0.1309336155116013</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03352856399636847</v>
+        <v>0.03360353754727292</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>26</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1680505558.947554</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2744647910.487827</v>
+        <v>2468352984.716128</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1042355191957804</v>
+        <v>0.1527075372601255</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03351688289739696</v>
+        <v>0.04152568303188675</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>22</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1372324011.963471</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1896413543.573009</v>
+        <v>1321104329.054946</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1372194790418935</v>
+        <v>0.09172146969047448</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03882359789468522</v>
+        <v>0.0404296361774486</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>948206822.9682701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1801310579.839742</v>
+        <v>1428935461.009319</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1678921946167758</v>
+        <v>0.1455806190146678</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05204857698690434</v>
+        <v>0.04414917169577744</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>900655288.569072</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2857258446.271797</v>
+        <v>2379149228.205587</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06899816085879872</v>
+        <v>0.08783212662358925</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03292897009081328</v>
+        <v>0.04620625660687321</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>13</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1428629233.966604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3949499859.129225</v>
+        <v>4566874993.73772</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1016789137031467</v>
+        <v>0.09847919086326234</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04523570768243259</v>
+        <v>0.0416403810377331</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>19</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1974749933.350778</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2161339393.449328</v>
+        <v>2121800259.579884</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1669916433434709</v>
+        <v>0.1201653535358786</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03439694226106307</v>
+        <v>0.03697515236540849</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1080669715.968582</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2759688110.21435</v>
+        <v>3275129661.620852</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1355311946552722</v>
+        <v>0.08410288199073473</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04603958848935735</v>
+        <v>0.04123320559627373</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>15</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1379844072.215394</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1534976922.836167</v>
+        <v>1788388432.631788</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09000402886162794</v>
+        <v>0.130934772696717</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04691456349200863</v>
+        <v>0.03187075321226049</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>767488497.9228216</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3933723955.486245</v>
+        <v>4194689991.381502</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1678540364107794</v>
+        <v>0.1721915140315609</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01807667051264827</v>
+        <v>0.02276546080082109</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>21</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1966862028.697693</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3142321696.096307</v>
+        <v>3909877131.327034</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09327909171985707</v>
+        <v>0.1270946060731356</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02416154561092485</v>
+        <v>0.02882203515639917</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1571160842.292548</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2731728780.564065</v>
+        <v>2298838788.851639</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1056691141887322</v>
+        <v>0.09693435249727123</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03509385766086192</v>
+        <v>0.03037646784559082</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>21</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1365864356.675426</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3364245158.860614</v>
+        <v>4129149833.476592</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1228356281920342</v>
+        <v>0.1789969006689457</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01996294066722362</v>
+        <v>0.0237886488607568</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>20</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1682122599.269539</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2799658032.857838</v>
+        <v>3607416790.985754</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2014639894996719</v>
+        <v>0.1647629315608773</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04946044256054272</v>
+        <v>0.05404773962981528</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>27</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1399829078.906661</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_65.xlsx
+++ b/output/fit_clients/fit_round_65.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2273249656.441344</v>
+        <v>2135368818.201986</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08614357949831822</v>
+        <v>0.114280651169359</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02935934820325434</v>
+        <v>0.03518581744760542</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1977358406.531113</v>
+        <v>2360778870.225608</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1135385003898313</v>
+        <v>0.12740196988072</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03161572082720852</v>
+        <v>0.05028078104199624</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3572500558.798425</v>
+        <v>4607112814.219873</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1213308008337176</v>
+        <v>0.1023561092394605</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03724289153438859</v>
+        <v>0.03769201507548895</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3091749551.210954</v>
+        <v>4025168692.351484</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06701702127145881</v>
+        <v>0.06860747927869061</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03299546306991673</v>
+        <v>0.0334678787997685</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2751629374.156743</v>
+        <v>2046406884.116596</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09696023376663541</v>
+        <v>0.1274806517814754</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04898765508050895</v>
+        <v>0.04976428603511476</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2494307496.82033</v>
+        <v>3099119892.29944</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08927501792357143</v>
+        <v>0.06231590580140799</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03641113597867071</v>
+        <v>0.03162629746567929</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3340877609.150076</v>
+        <v>2840584849.712809</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1550479000242765</v>
+        <v>0.1458834865728596</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02673587217394092</v>
+        <v>0.03351292110132977</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1974078614.207117</v>
+        <v>1701146587.337247</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1738884157355724</v>
+        <v>0.1965759343763672</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03223598997442874</v>
+        <v>0.02537703685375478</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4523015236.855826</v>
+        <v>4532635016.919598</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2080321116032361</v>
+        <v>0.1330006189240786</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04177696623436606</v>
+        <v>0.04782232989399768</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2931255273.56327</v>
+        <v>3866495365.522924</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1632021776279513</v>
+        <v>0.1892798455233243</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03608750729267658</v>
+        <v>0.03611580490676801</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2810248695.474171</v>
+        <v>2719979602.19606</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1811902708019621</v>
+        <v>0.146495241948485</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04207821492902886</v>
+        <v>0.03305905669819835</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4125389963.38938</v>
+        <v>5318413236.771461</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06665500871591573</v>
+        <v>0.08986442041372929</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02407684257751419</v>
+        <v>0.02061080019757604</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3334221876.004659</v>
+        <v>3131659671.680348</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1876562515404587</v>
+        <v>0.1362473597401568</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03383409848871248</v>
+        <v>0.03756292715957333</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1833616455.413848</v>
+        <v>1654328835.446009</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0785715840483466</v>
+        <v>0.0978549392511673</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03011585416051991</v>
+        <v>0.04345044103017617</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1983663369.08103</v>
+        <v>2122646599.041197</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09907116013842664</v>
+        <v>0.09565554726588756</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0331617620964923</v>
+        <v>0.04237757354116845</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4060080016.44821</v>
+        <v>4112972988.006981</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1489412954640366</v>
+        <v>0.1497293469502192</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03686791828953438</v>
+        <v>0.04327691597921641</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3983779030.883379</v>
+        <v>3266904953.836773</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1160972265118004</v>
+        <v>0.1487729970081597</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03312510889969381</v>
+        <v>0.02345145032775653</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>927872692.2683015</v>
+        <v>1005991321.524598</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1166918174209675</v>
+        <v>0.12244537405084</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01989211110207669</v>
+        <v>0.02013300454316072</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2042399766.68865</v>
+        <v>1884393190.562726</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1337862824552205</v>
+        <v>0.1355815143864991</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02415989683561331</v>
+        <v>0.02823761396226524</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2404614549.134183</v>
+        <v>2646884799.142058</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07828135298131665</v>
+        <v>0.0875982589170417</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04438927708100113</v>
+        <v>0.03450800830259525</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2857588632.128191</v>
+        <v>3211720858.316837</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1123336589448554</v>
+        <v>0.102985948805319</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03629713091647885</v>
+        <v>0.04519639255338015</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1284204151.025741</v>
+        <v>1374921857.440003</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1424197101157087</v>
+        <v>0.1576626518751827</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04737901183462094</v>
+        <v>0.05278648077068713</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4084717567.427995</v>
+        <v>2681782003.534689</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1394912681275357</v>
+        <v>0.1168956935053307</v>
       </c>
       <c r="G24" t="n">
-        <v>0.028310733070157</v>
+        <v>0.02290039045364341</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1336657697.822622</v>
+        <v>1114430728.869169</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1049349043885902</v>
+        <v>0.1153689956967854</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02168200098717568</v>
+        <v>0.02683775449813093</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1272323811.798052</v>
+        <v>1061459096.349613</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1148412809502949</v>
+        <v>0.1214655138286205</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02792055549105034</v>
+        <v>0.02521291623077261</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3401479876.674263</v>
+        <v>3583269399.261001</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1106496751805556</v>
+        <v>0.1540342235121258</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02012561649618258</v>
+        <v>0.01995868818889267</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2714333063.969376</v>
+        <v>3132096395.56278</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0946001438104781</v>
+        <v>0.1499304261185602</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03716962670794606</v>
+        <v>0.04271719011715037</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4930016490.341434</v>
+        <v>4183385626.981656</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1050834687330412</v>
+        <v>0.1396824059542128</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02823058194124897</v>
+        <v>0.03769864613097527</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2051364296.623565</v>
+        <v>2069720704.765683</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1268729993948358</v>
+        <v>0.11552221913385</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0325100897529796</v>
+        <v>0.03956946867386824</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1173925318.196869</v>
+        <v>1052228596.342601</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08378400345820691</v>
+        <v>0.07069004774877827</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04799039862018326</v>
+        <v>0.05096985840032965</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1856039327.358913</v>
+        <v>1886465893.249668</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1138715141092788</v>
+        <v>0.07742325559339089</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02417683931868403</v>
+        <v>0.02487444932794525</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2652253164.922661</v>
+        <v>1946232621.161291</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1520878985355856</v>
+        <v>0.1560285624086072</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04357297046318808</v>
+        <v>0.06078585035166972</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1404891685.799286</v>
+        <v>1444368218.200326</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1166218835608346</v>
+        <v>0.1000449588534511</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01816386022842791</v>
+        <v>0.02435911524794476</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1312287076.39446</v>
+        <v>1310461828.526879</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08065163037133818</v>
+        <v>0.1122407345937522</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03000368604369023</v>
+        <v>0.03664605105553032</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2646676345.418628</v>
+        <v>2392439497.512491</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1534979343266149</v>
+        <v>0.1690224926244598</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02439369291099533</v>
+        <v>0.02892198535669153</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2204520403.071929</v>
+        <v>2152024463.791217</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08845002728094023</v>
+        <v>0.09564670284932338</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03039103068873765</v>
+        <v>0.03695289654384087</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1870114695.136537</v>
+        <v>1692136064.138208</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1099410113477662</v>
+        <v>0.1208666774518097</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03837870768309709</v>
+        <v>0.02842916253728064</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1883475209.683595</v>
+        <v>1340817567.059738</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1169637102819187</v>
+        <v>0.1940265648864604</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02965658523547829</v>
+        <v>0.02514873473610645</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1522481208.917955</v>
+        <v>1628545343.838825</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1371325564803204</v>
+        <v>0.1625551340783489</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04193165483585699</v>
+        <v>0.05507890652098062</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1774481669.020973</v>
+        <v>2779757963.386148</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1173225162651926</v>
+        <v>0.1230625572253102</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02883874853098503</v>
+        <v>0.04647949555679812</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3857159362.905777</v>
+        <v>2818484825.651151</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09086213824971748</v>
+        <v>0.0961688471576793</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04538188697175566</v>
+        <v>0.02886356700904241</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2850682691.181738</v>
+        <v>2243498006.071746</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1709100824861393</v>
+        <v>0.1456899202223728</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01644734429597449</v>
+        <v>0.02392529899746526</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1767786657.225858</v>
+        <v>1764349193.858999</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08235117898416543</v>
+        <v>0.1020256710144119</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03421241479459099</v>
+        <v>0.03133537486889026</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1878093417.329596</v>
+        <v>1758480318.326598</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1887114658897839</v>
+        <v>0.1324949763527644</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04355575701708223</v>
+        <v>0.03607137091992357</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5011825799.39817</v>
+        <v>4230357546.646699</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1507775165251939</v>
+        <v>0.1625988800720661</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04166539530502203</v>
+        <v>0.05944134366785695</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4275997940.130224</v>
+        <v>4059441169.179406</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1642498502759266</v>
+        <v>0.1940176768653478</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03845390519580445</v>
+        <v>0.05308126871279185</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2893354445.995264</v>
+        <v>4124308724.763482</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09748434945531785</v>
+        <v>0.08149768825241703</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03391476307462592</v>
+        <v>0.03639348642913771</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1869197677.307838</v>
+        <v>1202986688.158928</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1313327559654003</v>
+        <v>0.1797770554632305</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02758007749635386</v>
+        <v>0.02799677913950312</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3241389996.273197</v>
+        <v>3713467324.206646</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1658575180495158</v>
+        <v>0.1354606226827568</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04152867300648096</v>
+        <v>0.04670277697356715</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>955358203.4760276</v>
+        <v>1144876325.262697</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1631890122712066</v>
+        <v>0.1903945313936268</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03841141744165365</v>
+        <v>0.03484770497252133</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4460149488.258837</v>
+        <v>4742646277.159654</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1092049632587934</v>
+        <v>0.1208004074472735</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05152782482363092</v>
+        <v>0.05970301256851201</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3656949992.315879</v>
+        <v>3069089326.323406</v>
       </c>
       <c r="F53" t="n">
-        <v>0.133895875562236</v>
+        <v>0.1932233295170238</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03107347944521398</v>
+        <v>0.02360683658073987</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3309110038.966692</v>
+        <v>3273359522.618973</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1488558659327196</v>
+        <v>0.1254894177071861</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0488951323123433</v>
+        <v>0.04998483397554119</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4548861812.134791</v>
+        <v>4769977142.233453</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1609743508173366</v>
+        <v>0.2071804125493255</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03125849443736235</v>
+        <v>0.03177561738202062</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1160107588.956031</v>
+        <v>1409906624.695884</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1117586570283155</v>
+        <v>0.1138541910877252</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03878077055861855</v>
+        <v>0.05595466338632874</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3709141957.907064</v>
+        <v>4078849329.898181</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1628563238663882</v>
+        <v>0.1690310976182207</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02260739476576291</v>
+        <v>0.02727315565715709</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1158558006.099065</v>
+        <v>1356609917.287656</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1304293796128374</v>
+        <v>0.1454340013141945</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02426545451932346</v>
+        <v>0.0280580863030653</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4043998973.073507</v>
+        <v>5122794361.953324</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1242383008313635</v>
+        <v>0.09862095016207953</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03412624951623295</v>
+        <v>0.04242315639823564</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3704998833.980238</v>
+        <v>2881451546.046718</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1402868783805716</v>
+        <v>0.1684329612649318</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03292265513988183</v>
+        <v>0.02246367074659139</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2103816973.767618</v>
+        <v>3396776582.491485</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1442401975669366</v>
+        <v>0.1566490724969087</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02114248203911141</v>
+        <v>0.02214136425187783</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1597199096.708867</v>
+        <v>1437913690.027287</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1625887591389523</v>
+        <v>0.1684556825209255</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04347741355152206</v>
+        <v>0.03807525910074262</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3778796921.108412</v>
+        <v>3522249414.2967</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08906628860773247</v>
+        <v>0.07737640149147937</v>
       </c>
       <c r="G63" t="n">
-        <v>0.038142316488062</v>
+        <v>0.03688034708710223</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4688752483.960339</v>
+        <v>3565940084.896649</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1435551080663856</v>
+        <v>0.1871101053143559</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02883975645293244</v>
+        <v>0.03377509006149458</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3714505174.221934</v>
+        <v>5719901755.814211</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1302576611558359</v>
+        <v>0.1117709781704687</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02127044317925837</v>
+        <v>0.02683770314762611</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4683415950.050711</v>
+        <v>5628400393.697731</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1053013122721457</v>
+        <v>0.1544059717917995</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04460760956016641</v>
+        <v>0.03674710246005995</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2532886155.817986</v>
+        <v>2651000296.368358</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06576485910823</v>
+        <v>0.09906169595017238</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0452198948522261</v>
+        <v>0.0458322803896458</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5843141713.907178</v>
+        <v>4661537615.967717</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1167904144556721</v>
+        <v>0.09985088587852502</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03987060076030337</v>
+        <v>0.0369740942428423</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2471277835.560093</v>
+        <v>1664780802.835657</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1239457285903813</v>
+        <v>0.1384080425484912</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04427326256468581</v>
+        <v>0.04259627650291204</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3254261580.515386</v>
+        <v>2431223699.251004</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06834806986215701</v>
+        <v>0.09495370695306317</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03895903646803384</v>
+        <v>0.03237262887174249</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5656226281.296525</v>
+        <v>5386670770.828973</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1433068245073754</v>
+        <v>0.1782895607207399</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03152152188491498</v>
+        <v>0.02313489746804859</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1921050845.841666</v>
+        <v>2206565792.098138</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09772896667401537</v>
+        <v>0.09091581931367797</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04817226184402799</v>
+        <v>0.05328856093892414</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2613214813.933311</v>
+        <v>2952556164.106707</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0856263755556573</v>
+        <v>0.09760111881733143</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04253721887191243</v>
+        <v>0.0384614435283249</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2941833911.927226</v>
+        <v>2787869009.661731</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1562396242353125</v>
+        <v>0.1225870388480192</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03383193273666585</v>
+        <v>0.0242320912495673</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2425290848.855825</v>
+        <v>1591157713.73867</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1273296132178514</v>
+        <v>0.111186947827113</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03347125120043182</v>
+        <v>0.03733835136600812</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4704646767.254184</v>
+        <v>3356925244.892629</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1202054750005831</v>
+        <v>0.08702750504910242</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03226922916583931</v>
+        <v>0.02964704334234653</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2057070651.413847</v>
+        <v>1591798335.938391</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1328193520461404</v>
+        <v>0.1795710819271532</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02694086163623252</v>
+        <v>0.02751022509744815</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3457766315.222068</v>
+        <v>4783341604.516177</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09784461217650398</v>
+        <v>0.1182537203730457</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04533801539825096</v>
+        <v>0.044160442176198</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1270570167.871153</v>
+        <v>1275072754.178727</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1536510163096804</v>
+        <v>0.1150092023482133</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03876771196715421</v>
+        <v>0.04023099589220366</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3469997575.40081</v>
+        <v>3611842392.047221</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1090751346160698</v>
+        <v>0.09143580978571246</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0306836270218215</v>
+        <v>0.03558092812278638</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4248871785.460642</v>
+        <v>3253324221.397868</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1104215896474563</v>
+        <v>0.1046169021758259</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02148592380828225</v>
+        <v>0.02092845384985361</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4500647912.447371</v>
+        <v>4084191282.06487</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1542227663260251</v>
+        <v>0.1737776673510619</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02524560346124049</v>
+        <v>0.02760302040996757</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2491081693.899313</v>
+        <v>1641534137.421695</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1236036982521439</v>
+        <v>0.09563187972848933</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03994766912982348</v>
+        <v>0.03762274262031638</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2549513374.040971</v>
+        <v>1885598525.040097</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08055622622713716</v>
+        <v>0.1142839845808931</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03671472932928049</v>
+        <v>0.0462041978092862</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3356810462.206106</v>
+        <v>2722226744.400737</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1391738998791985</v>
+        <v>0.1660693813119419</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03692376142989112</v>
+        <v>0.04387231916711803</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2508272442.714371</v>
+        <v>2675162163.34601</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1477293363177013</v>
+        <v>0.1153483787333136</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02538210289524571</v>
+        <v>0.01872677740308321</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1149827272.754922</v>
+        <v>1371134038.750025</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1675756555551143</v>
+        <v>0.186806239903943</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04104825930541647</v>
+        <v>0.0322129327043392</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3108808234.080011</v>
+        <v>2319116183.732181</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1309336155116013</v>
+        <v>0.1678128089433415</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03360353754727292</v>
+        <v>0.03791182978569151</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2468352984.716128</v>
+        <v>2826565253.399552</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1527075372601255</v>
+        <v>0.135402960688638</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04152568303188675</v>
+        <v>0.02820217281615751</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1321104329.054946</v>
+        <v>2171512775.899664</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09172146969047448</v>
+        <v>0.09011567311044399</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0404296361774486</v>
+        <v>0.04649422256719806</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1428935461.009319</v>
+        <v>1767795625.386793</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1455806190146678</v>
+        <v>0.1195782409779099</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04414917169577744</v>
+        <v>0.05500695999681406</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2379149228.205587</v>
+        <v>2650965112.043155</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08783212662358925</v>
+        <v>0.07170389428240707</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04620625660687321</v>
+        <v>0.03561491234803232</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4566874993.73772</v>
+        <v>4399144917.624721</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09847919086326234</v>
+        <v>0.1057044046549293</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0416403810377331</v>
+        <v>0.04144376665086182</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2121800259.579884</v>
+        <v>1769893263.826931</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1201653535358786</v>
+        <v>0.1353965914012098</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03697515236540849</v>
+        <v>0.03918045810535298</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3275129661.620852</v>
+        <v>2974525614.980734</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08410288199073473</v>
+        <v>0.1368398770653247</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04123320559627373</v>
+        <v>0.03839882205675149</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1788388432.631788</v>
+        <v>2104373262.265015</v>
       </c>
       <c r="F96" t="n">
-        <v>0.130934772696717</v>
+        <v>0.1316134861567131</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03187075321226049</v>
+        <v>0.04157222672426648</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4194689991.381502</v>
+        <v>3879521323.434067</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1721915140315609</v>
+        <v>0.1546014669594082</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02276546080082109</v>
+        <v>0.02162095236568821</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3909877131.327034</v>
+        <v>3152312250.663416</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1270946060731356</v>
+        <v>0.08448724409631765</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02882203515639917</v>
+        <v>0.02056040192764967</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2298838788.851639</v>
+        <v>2316816875.949118</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09693435249727123</v>
+        <v>0.1314448652064727</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03037646784559082</v>
+        <v>0.03350874276004406</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4129149833.476592</v>
+        <v>3282951799.321371</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1789969006689457</v>
+        <v>0.1472797921251272</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0237886488607568</v>
+        <v>0.02012009134751843</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3607416790.985754</v>
+        <v>3040686118.133186</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1647629315608773</v>
+        <v>0.1699609569995055</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05404773962981528</v>
+        <v>0.04001696695655908</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_65.xlsx
+++ b/output/fit_clients/fit_round_65.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2135368818.201986</v>
+        <v>2185893522.49253</v>
       </c>
       <c r="F2" t="n">
-        <v>0.114280651169359</v>
+        <v>0.0885635376714061</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03518581744760542</v>
+        <v>0.03215678096709832</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2360778870.225608</v>
+        <v>2019760832.797328</v>
       </c>
       <c r="F3" t="n">
-        <v>0.12740196988072</v>
+        <v>0.1802547787558396</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05028078104199624</v>
+        <v>0.04759067713405216</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4607112814.219873</v>
+        <v>4030679199.29162</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1023561092394605</v>
+        <v>0.1172451439398764</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03769201507548895</v>
+        <v>0.03494755029854406</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>45</v>
+      </c>
+      <c r="J4" t="n">
+        <v>65</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4025168692.351484</v>
+        <v>3693843549.268769</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06860747927869061</v>
+        <v>0.08667415213085364</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0334678787997685</v>
+        <v>0.04668398952977928</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>31</v>
+      </c>
+      <c r="J5" t="n">
+        <v>64</v>
+      </c>
+      <c r="K5" t="n">
+        <v>182.1326859169104</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2046406884.116596</v>
+        <v>2664992227.689588</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1274806517814754</v>
+        <v>0.1422904802054091</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04976428603511476</v>
+        <v>0.05276098034340039</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3099119892.29944</v>
+        <v>2526795020.48988</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06231590580140799</v>
+        <v>0.0637712431352766</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03162629746567929</v>
+        <v>0.03212494377769493</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2840584849.712809</v>
+        <v>2748603499.408022</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1458834865728596</v>
+        <v>0.1587801475016643</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03351292110132977</v>
+        <v>0.03300350784821931</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>63</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1701146587.337247</v>
+        <v>1420711396.830708</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1965759343763672</v>
+        <v>0.1665866307142177</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02537703685375478</v>
+        <v>0.03158260941920055</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4532635016.919598</v>
+        <v>4797947003.53703</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1330006189240786</v>
+        <v>0.2098600230421202</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04782232989399768</v>
+        <v>0.0492457723919698</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>60</v>
+      </c>
+      <c r="J10" t="n">
+        <v>65</v>
+      </c>
+      <c r="K10" t="n">
+        <v>210.5819182532402</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3866495365.522924</v>
+        <v>3274662277.692029</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1892798455233243</v>
+        <v>0.1893695577404868</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03611580490676801</v>
+        <v>0.03108550909133932</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>29</v>
+      </c>
+      <c r="J11" t="n">
+        <v>64</v>
+      </c>
+      <c r="K11" t="n">
+        <v>146.5958008389898</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2719979602.19606</v>
+        <v>2258669822.628336</v>
       </c>
       <c r="F12" t="n">
-        <v>0.146495241948485</v>
+        <v>0.161718993521081</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03305905669819835</v>
+        <v>0.0511099693006183</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +892,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5318413236.771461</v>
+        <v>4661107783.653691</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08986442041372929</v>
+        <v>0.08093465767992658</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02061080019757604</v>
+        <v>0.02846990108832597</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>33</v>
+      </c>
+      <c r="J13" t="n">
+        <v>65</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3131659671.680348</v>
+        <v>2956989076.41395</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1362473597401568</v>
+        <v>0.1394626509767553</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03756292715957333</v>
+        <v>0.02685641343339305</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>11</v>
+      </c>
+      <c r="J14" t="n">
+        <v>56</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1654328835.446009</v>
+        <v>1458630445.57409</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0978549392511673</v>
+        <v>0.09494002599899226</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04345044103017617</v>
+        <v>0.03101876757788696</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2122646599.041197</v>
+        <v>2766845495.871521</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09565554726588756</v>
+        <v>0.09156017847945785</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04237757354116845</v>
+        <v>0.0363126937266601</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4112972988.006981</v>
+        <v>4434198412.736895</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1497293469502192</v>
+        <v>0.1499576139127196</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04327691597921641</v>
+        <v>0.05327439585482864</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>31</v>
+      </c>
+      <c r="J17" t="n">
+        <v>65</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3266904953.836773</v>
+        <v>3535301454.52265</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1487729970081597</v>
+        <v>0.1811929817119526</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02345145032775653</v>
+        <v>0.02560941913662274</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15</v>
+      </c>
+      <c r="J18" t="n">
+        <v>65</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1005991321.524598</v>
+        <v>1217319430.666774</v>
       </c>
       <c r="F19" t="n">
-        <v>0.12244537405084</v>
+        <v>0.1198400197459417</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02013300454316072</v>
+        <v>0.02473821588035265</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1884393190.562726</v>
+        <v>1920934562.268343</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1355815143864991</v>
+        <v>0.1458008786473229</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02823761396226524</v>
+        <v>0.03181551106626185</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2646884799.142058</v>
+        <v>1847172524.272277</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0875982589170417</v>
+        <v>0.08135998598260398</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03450800830259525</v>
+        <v>0.03366257752560096</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3211720858.316837</v>
+        <v>2724457561.417519</v>
       </c>
       <c r="F22" t="n">
-        <v>0.102985948805319</v>
+        <v>0.1316447452823283</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04519639255338015</v>
+        <v>0.03510361644641249</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>16</v>
+      </c>
+      <c r="J22" t="n">
+        <v>62</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1374921857.440003</v>
+        <v>1450864766.355033</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1576626518751827</v>
+        <v>0.1565582034815068</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05278648077068713</v>
+        <v>0.03920352231304867</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1277,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2681782003.534689</v>
+        <v>3960457262.737061</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1168956935053307</v>
+        <v>0.1214211195930253</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02290039045364341</v>
+        <v>0.03269795949830753</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>20</v>
+      </c>
+      <c r="J24" t="n">
+        <v>64</v>
+      </c>
+      <c r="K24" t="n">
+        <v>175.0122596514678</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1114430728.869169</v>
+        <v>934781689.1757584</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1153689956967854</v>
+        <v>0.08516877090498538</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02683775449813093</v>
+        <v>0.02969566521594254</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1061459096.349613</v>
+        <v>887476588.5460235</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1214655138286205</v>
+        <v>0.124568159223735</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02521291623077261</v>
+        <v>0.03292764733392931</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3583269399.261001</v>
+        <v>4624778740.479753</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1540342235121258</v>
+        <v>0.1503565719678892</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01995868818889267</v>
+        <v>0.02631797685106383</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>26</v>
+      </c>
+      <c r="J27" t="n">
+        <v>64</v>
+      </c>
+      <c r="K27" t="n">
+        <v>156.0118478757663</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3132096395.56278</v>
+        <v>3174146026.590967</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1499304261185602</v>
+        <v>0.1035627911671649</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04271719011715037</v>
+        <v>0.03234678696255893</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>17</v>
+      </c>
+      <c r="J28" t="n">
+        <v>63</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4183385626.981656</v>
+        <v>5221026550.539452</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1396824059542128</v>
+        <v>0.1050370607131004</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03769864613097527</v>
+        <v>0.03321585985484168</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>59</v>
+      </c>
+      <c r="J29" t="n">
+        <v>65</v>
+      </c>
+      <c r="K29" t="n">
+        <v>217.700917437647</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2069720704.765683</v>
+        <v>1475557020.427464</v>
       </c>
       <c r="F30" t="n">
-        <v>0.11552221913385</v>
+        <v>0.1052064868458193</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03956946867386824</v>
+        <v>0.03016020435249282</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1052228596.342601</v>
+        <v>1111951855.889584</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07069004774877827</v>
+        <v>0.08532943509707704</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05096985840032965</v>
+        <v>0.03696487916073892</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1886465893.249668</v>
+        <v>1812026098.468723</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07742325559339089</v>
+        <v>0.08423107163089388</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02487444932794525</v>
+        <v>0.02731554844237146</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1946232621.161291</v>
+        <v>2106595502.873943</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1560285624086072</v>
+        <v>0.2023078851062838</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06078585035166972</v>
+        <v>0.04457630559931128</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1444368218.200326</v>
+        <v>1435045089.281991</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1000449588534511</v>
+        <v>0.07971730900280173</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02435911524794476</v>
+        <v>0.0214910580379271</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1310461828.526879</v>
+        <v>1347791653.120905</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1122407345937522</v>
+        <v>0.0722369490230389</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03664605105553032</v>
+        <v>0.03049009169874859</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2392439497.512491</v>
+        <v>2691314512.893839</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1690224926244598</v>
+        <v>0.169419077417743</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02892198535669153</v>
+        <v>0.02417308527385311</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2152024463.791217</v>
+        <v>1999842816.031769</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09564670284932338</v>
+        <v>0.09778875415917061</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03695289654384087</v>
+        <v>0.03318231402927994</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1692136064.138208</v>
+        <v>2137745058.157542</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1208666774518097</v>
+        <v>0.09984149506355937</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02842916253728064</v>
+        <v>0.03167981778421653</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1340817567.059738</v>
+        <v>2188983160.80106</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1940265648864604</v>
+        <v>0.1627436644999765</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02514873473610645</v>
+        <v>0.03236841272348177</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1628545343.838825</v>
+        <v>1698939039.865744</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1625551340783489</v>
+        <v>0.1419382648150198</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05507890652098062</v>
+        <v>0.04636219612728362</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2779757963.386148</v>
+        <v>2829830440.421665</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1230625572253102</v>
+        <v>0.1015976501664217</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04647949555679812</v>
+        <v>0.04266278398983638</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2818484825.651151</v>
+        <v>3516202239.350724</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0961688471576793</v>
+        <v>0.1052684224655894</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02886356700904241</v>
+        <v>0.03767840476830742</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>24</v>
+      </c>
+      <c r="J42" t="n">
+        <v>64</v>
+      </c>
+      <c r="K42" t="n">
+        <v>151.4687149892263</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2243498006.071746</v>
+        <v>2389805717.261203</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1456899202223728</v>
+        <v>0.1951653819917104</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02392529899746526</v>
+        <v>0.02039102311873815</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1764349193.858999</v>
+        <v>1663101928.069336</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1020256710144119</v>
+        <v>0.09661127277073213</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03133537486889026</v>
+        <v>0.02955791692135931</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1758480318.326598</v>
+        <v>2325360788.824925</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1324949763527644</v>
+        <v>0.160689964274421</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03607137091992357</v>
+        <v>0.04432369691211397</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4230357546.646699</v>
+        <v>4091547984.250237</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1625988800720661</v>
+        <v>0.1479903296179172</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05944134366785695</v>
+        <v>0.06132884860884294</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>39</v>
+      </c>
+      <c r="J46" t="n">
+        <v>64</v>
+      </c>
+      <c r="K46" t="n">
+        <v>186.2449933979867</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4059441169.179406</v>
+        <v>4652051082.631779</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1940176768653478</v>
+        <v>0.1321162814606267</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05308126871279185</v>
+        <v>0.05160485121784706</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>28</v>
+      </c>
+      <c r="J47" t="n">
+        <v>65</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4124308724.763482</v>
+        <v>4587652719.224942</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08149768825241703</v>
+        <v>0.1039117278216174</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03639348642913771</v>
+        <v>0.03263325174741346</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>23</v>
+      </c>
+      <c r="J48" t="n">
+        <v>65</v>
+      </c>
+      <c r="K48" t="n">
+        <v>188.7129226524468</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1202986688.158928</v>
+        <v>1521175863.260468</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1797770554632305</v>
+        <v>0.1206547156894055</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02799677913950312</v>
+        <v>0.03434260272715565</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3713467324.206646</v>
+        <v>3466149194.897964</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1354606226827568</v>
+        <v>0.1320028259354289</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04670277697356715</v>
+        <v>0.03609548206497409</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>23</v>
+      </c>
+      <c r="J50" t="n">
+        <v>65</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1144876325.262697</v>
+        <v>1125694974.451337</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1903945313936268</v>
+        <v>0.1964597038190638</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03484770497252133</v>
+        <v>0.03344955657095948</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4742646277.159654</v>
+        <v>3766679484.739717</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1208004074472735</v>
+        <v>0.09361965742002973</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05970301256851201</v>
+        <v>0.04376971854313613</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>52</v>
+      </c>
+      <c r="J52" t="n">
+        <v>64</v>
+      </c>
+      <c r="K52" t="n">
+        <v>185.5376432041108</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3069089326.323406</v>
+        <v>2345021281.025296</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1932233295170238</v>
+        <v>0.1792006388252827</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02360683658073987</v>
+        <v>0.02465427660440144</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2341,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3273359522.618973</v>
+        <v>4368696489.651627</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1254894177071861</v>
+        <v>0.1613845539106444</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04998483397554119</v>
+        <v>0.05206673477293908</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>28</v>
+      </c>
+      <c r="J54" t="n">
+        <v>65</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4769977142.233453</v>
+        <v>4622128296.73686</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2071804125493255</v>
+        <v>0.1895862084728983</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03177561738202062</v>
+        <v>0.02448877396995556</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>30</v>
+      </c>
+      <c r="J55" t="n">
+        <v>64</v>
+      </c>
+      <c r="K55" t="n">
+        <v>166.8548107032716</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1409906624.695884</v>
+        <v>1294247941.291225</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1138541910877252</v>
+        <v>0.1488293335639383</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05595466338632874</v>
+        <v>0.04897602359034585</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4078849329.898181</v>
+        <v>4032055338.695992</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1690310976182207</v>
+        <v>0.129429400299589</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02727315565715709</v>
+        <v>0.0184226532604366</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>24</v>
+      </c>
+      <c r="J57" t="n">
+        <v>65</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1356609917.287656</v>
+        <v>1771381909.050851</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1454340013141945</v>
+        <v>0.1864719678135391</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0280580863030653</v>
+        <v>0.03776530391599839</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5122794361.953324</v>
+        <v>4325189626.774305</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09862095016207953</v>
+        <v>0.09546051454580001</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04242315639823564</v>
+        <v>0.03668946253204296</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>31</v>
+      </c>
+      <c r="J59" t="n">
+        <v>65</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2881451546.046718</v>
+        <v>2325853131.593012</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1684329612649318</v>
+        <v>0.1784893284528549</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02246367074659139</v>
+        <v>0.02744993273210983</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>52</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3396776582.491485</v>
+        <v>2644836307.12739</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1566490724969087</v>
+        <v>0.109086063881901</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02214136425187783</v>
+        <v>0.03100550263666924</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1437913690.027287</v>
+        <v>1671612913.581709</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1684556825209255</v>
+        <v>0.1569376576947738</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03807525910074262</v>
+        <v>0.03815422320160968</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2658,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3522249414.2967</v>
+        <v>3892888655.552111</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07737640149147937</v>
+        <v>0.0829924102780125</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03688034708710223</v>
+        <v>0.03423814382907182</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>32</v>
+      </c>
+      <c r="J63" t="n">
+        <v>64</v>
+      </c>
+      <c r="K63" t="n">
+        <v>173.6311241944209</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2695,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3565940084.896649</v>
+        <v>4751757065.017673</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1871101053143559</v>
+        <v>0.1289975846772946</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03377509006149458</v>
+        <v>0.02290341308246647</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>32</v>
+      </c>
+      <c r="J64" t="n">
+        <v>64</v>
+      </c>
+      <c r="K64" t="n">
+        <v>179.9509161723213</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5719901755.814211</v>
+        <v>5140614884.762342</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1117709781704687</v>
+        <v>0.1721832652145124</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02683770314762611</v>
+        <v>0.03067906309256624</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>51</v>
+      </c>
+      <c r="J65" t="n">
+        <v>65</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5628400393.697731</v>
+        <v>3604175176.92364</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1544059717917995</v>
+        <v>0.1482339640231166</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03674710246005995</v>
+        <v>0.04363836739619519</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>32</v>
+      </c>
+      <c r="J66" t="n">
+        <v>64</v>
+      </c>
+      <c r="K66" t="n">
+        <v>151.8931385499301</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2651000296.368358</v>
+        <v>3439824363.240039</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09906169595017238</v>
+        <v>0.09862029521819925</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0458322803896458</v>
+        <v>0.04319378340580776</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4661537615.967717</v>
+        <v>5940598211.922608</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09985088587852502</v>
+        <v>0.1439800947346618</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0369740942428423</v>
+        <v>0.04050556878577629</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>32</v>
+      </c>
+      <c r="J68" t="n">
+        <v>65</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1664780802.835657</v>
+        <v>1843243370.066944</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1384080425484912</v>
+        <v>0.1172021836478901</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04259627650291204</v>
+        <v>0.04163341065695578</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2431223699.251004</v>
+        <v>3720666187.584373</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09495370695306317</v>
+        <v>0.07542940106080527</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03237262887174249</v>
+        <v>0.03297061560526478</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>7</v>
+      </c>
+      <c r="J70" t="n">
+        <v>65</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5386670770.828973</v>
+        <v>4387036689.913307</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1782895607207399</v>
+        <v>0.1453195366152778</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02313489746804859</v>
+        <v>0.03387794835708319</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>53</v>
+      </c>
+      <c r="J71" t="n">
+        <v>65</v>
+      </c>
+      <c r="K71" t="n">
+        <v>191.2764887018732</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2206565792.098138</v>
+        <v>1936983034.45554</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09091581931367797</v>
+        <v>0.07158441097477643</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05328856093892414</v>
+        <v>0.05120955460611287</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2952556164.106707</v>
+        <v>2365699936.039462</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09760111881733143</v>
+        <v>0.09807817155626417</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0384614435283249</v>
+        <v>0.04429731037596826</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>54</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2787869009.661731</v>
+        <v>2997535395.381752</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1225870388480192</v>
+        <v>0.1253455282686106</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0242320912495673</v>
+        <v>0.02999326180078692</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>19</v>
+      </c>
+      <c r="J74" t="n">
+        <v>63</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1591157713.73867</v>
+        <v>2452032105.726143</v>
       </c>
       <c r="F75" t="n">
-        <v>0.111186947827113</v>
+        <v>0.1045983962051741</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03733835136600812</v>
+        <v>0.03426076161955904</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3356925244.892629</v>
+        <v>3683321782.060565</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08702750504910242</v>
+        <v>0.1228850106805657</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02964704334234653</v>
+        <v>0.02765367176108872</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>30</v>
+      </c>
+      <c r="J76" t="n">
+        <v>64</v>
+      </c>
+      <c r="K76" t="n">
+        <v>137.683242186714</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1591798335.938391</v>
+        <v>2077241417.094264</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1795710819271532</v>
+        <v>0.1637796378975057</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02751022509744815</v>
+        <v>0.02290270269630519</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3193,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4783341604.516177</v>
+        <v>3639132799.747766</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1182537203730457</v>
+        <v>0.115260914683986</v>
       </c>
       <c r="G78" t="n">
-        <v>0.044160442176198</v>
+        <v>0.04969398068438526</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>27</v>
+      </c>
+      <c r="J78" t="n">
+        <v>64</v>
+      </c>
+      <c r="K78" t="n">
+        <v>167.6062073007766</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1275072754.178727</v>
+        <v>1826748201.030221</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1150092023482133</v>
+        <v>0.1650175769933675</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04023099589220366</v>
+        <v>0.02868692445326458</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3611842392.047221</v>
+        <v>5488405219.669126</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09143580978571246</v>
+        <v>0.09731873806006745</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03558092812278638</v>
+        <v>0.026671004414748</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>31</v>
+      </c>
+      <c r="J80" t="n">
+        <v>65</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3253324221.397868</v>
+        <v>4235535172.970232</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1046169021758259</v>
+        <v>0.1225662763057719</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02092845384985361</v>
+        <v>0.0252579396972436</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>29</v>
+      </c>
+      <c r="J81" t="n">
+        <v>65</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4084191282.06487</v>
+        <v>4554489888.458794</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1737776673510619</v>
+        <v>0.2085489258590632</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02760302040996757</v>
+        <v>0.02411761977986024</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>39</v>
+      </c>
+      <c r="J82" t="n">
+        <v>65</v>
+      </c>
+      <c r="K82" t="n">
+        <v>196.7165448111285</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1641534137.421695</v>
+        <v>2308857919.864722</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09563187972848933</v>
+        <v>0.1328544626343886</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03762274262031638</v>
+        <v>0.03561128347406155</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1885598525.040097</v>
+        <v>2426422960.60958</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1142839845808931</v>
+        <v>0.101829656580615</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0462041978092862</v>
+        <v>0.04923063763600567</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,16 +3442,25 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2722226744.400737</v>
+        <v>3422841455.528247</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1660693813119419</v>
+        <v>0.1607476161922075</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04387231916711803</v>
+        <v>0.04856666867959535</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>12</v>
+      </c>
+      <c r="J85" t="n">
+        <v>64</v>
+      </c>
+      <c r="K85" t="n">
+        <v>155.3065036987849</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2675162163.34601</v>
+        <v>1721748858.469388</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1153483787333136</v>
+        <v>0.1075948234864276</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01872677740308321</v>
+        <v>0.02102270289417074</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1371134038.750025</v>
+        <v>1220037989.506689</v>
       </c>
       <c r="F87" t="n">
-        <v>0.186806239903943</v>
+        <v>0.1610841323558307</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0322129327043392</v>
+        <v>0.04071908232568376</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2319116183.732181</v>
+        <v>2750067305.057973</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1678128089433415</v>
+        <v>0.1603021979609898</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03791182978569151</v>
+        <v>0.03618855186523619</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>55</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2826565253.399552</v>
+        <v>2441390878.030858</v>
       </c>
       <c r="F89" t="n">
-        <v>0.135402960688638</v>
+        <v>0.09922257154529675</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02820217281615751</v>
+        <v>0.02609884829287515</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>62</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2171512775.899664</v>
+        <v>2142230979.169952</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09011567311044399</v>
+        <v>0.1240078154771554</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04649422256719806</v>
+        <v>0.04925324645929087</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1767795625.386793</v>
+        <v>1661796237.938334</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1195782409779099</v>
+        <v>0.1532874655888742</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05500695999681406</v>
+        <v>0.04300257121921403</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2650965112.043155</v>
+        <v>2200806782.92652</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07170389428240707</v>
+        <v>0.07083801141628737</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03561491234803232</v>
+        <v>0.0314100233206319</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3724,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4399144917.624721</v>
+        <v>3561213401.608069</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1057044046549293</v>
+        <v>0.09486444837855051</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04144376665086182</v>
+        <v>0.04757525145740878</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>29</v>
+      </c>
+      <c r="J93" t="n">
+        <v>64</v>
+      </c>
+      <c r="K93" t="n">
+        <v>143.3844106484212</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1769893263.826931</v>
+        <v>2250132728.641405</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1353965914012098</v>
+        <v>0.1268293247656801</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03918045810535298</v>
+        <v>0.02819529561291829</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2974525614.980734</v>
+        <v>2145953187.176352</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1368398770653247</v>
+        <v>0.08339867957703985</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03839882205675149</v>
+        <v>0.04105617853065786</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2104373262.265015</v>
+        <v>2038942315.889974</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1316134861567131</v>
+        <v>0.1322920932652085</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04157222672426648</v>
+        <v>0.0407995759540101</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3879521323.434067</v>
+        <v>5105197547.842123</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1546014669594082</v>
+        <v>0.1336748494775615</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02162095236568821</v>
+        <v>0.02211038863946375</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>31</v>
+      </c>
+      <c r="J97" t="n">
+        <v>65</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3152312250.663416</v>
+        <v>2980720894.229014</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08448724409631765</v>
+        <v>0.1100656195517886</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02056040192764967</v>
+        <v>0.0278415466618974</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>62</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2316816875.949118</v>
+        <v>3097928581.54073</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1314448652064727</v>
+        <v>0.123416202051266</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03350874276004406</v>
+        <v>0.02639999537996808</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3282951799.321371</v>
+        <v>3026000453.263531</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1472797921251272</v>
+        <v>0.1405374144718746</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02012009134751843</v>
+        <v>0.01858746621548926</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>27</v>
+      </c>
+      <c r="J100" t="n">
+        <v>63</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3040686118.133186</v>
+        <v>3194310391.192853</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1699609569995055</v>
+        <v>0.1968890144942209</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04001696695655908</v>
+        <v>0.04977220073919826</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>48</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
